--- a/UI/Seminarska/rezultati.xlsx
+++ b/UI/Seminarska/rezultati.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>Ocene modelov za PM10</t>
   </si>
@@ -39,9 +39,6 @@
     <t xml:space="preserve">PM10 ~ Temperatura_lokacija_min + Sunki_vetra_max + Padavine_mean + postaja + Temperatura_Krvavec_min + O3 + Sunki_vetra_mean + Temperatura_lokacija_mean </t>
   </si>
   <si>
-    <t>Formula 2 - Wrapper</t>
-  </si>
-  <si>
     <t>PM10 ~ Temperatura_lokacija_max + Temperatura_lokacija_mean + Letni_cas + O3 + Temperatura_Krvavec_mean + Pritisk_max + Pritisk_mean + Glob_sevanje_max  + Vlaga_min + Glob_sevanje_mean</t>
   </si>
   <si>
@@ -103,6 +100,57 @@
   </si>
   <si>
     <t>0.9128271</t>
+  </si>
+  <si>
+    <t>Formula 3</t>
+  </si>
+  <si>
+    <t>Ocene modelov za O3</t>
+  </si>
+  <si>
+    <t>O3 ~ .</t>
+  </si>
+  <si>
+    <t>0.8212146</t>
+  </si>
+  <si>
+    <t>Random Forests</t>
+  </si>
+  <si>
+    <t>0.7117439</t>
+  </si>
+  <si>
+    <t>Boosting</t>
+  </si>
+  <si>
+    <t>0.8026336</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>O3 ~ Temperatura_lokacija_max + Glob_sevanje_mean + Temperatura_Krvavec_mean + Pritisk_mean + Hitrost_vetra_max + Glob_sevanje_max + Temperatura_Krvavec_min + Padavine_sum</t>
+  </si>
+  <si>
+    <t>0.8022466</t>
+  </si>
+  <si>
+    <t>0.8002556</t>
+  </si>
+  <si>
+    <t>0.787336</t>
+  </si>
+  <si>
+    <t>O3 ~ Glob_sevanje_mean + Glob_sevanje_max + Letni_cas + Temperatura_lokacija_mean + Temperatura_Krvavec_max + Vlaga_min + PM10 + Vlaga_max</t>
+  </si>
+  <si>
+    <t>0.7998175</t>
+  </si>
+  <si>
+    <t>0.797437</t>
+  </si>
+  <si>
+    <t>0.8006426</t>
   </si>
 </sst>
 </file>
@@ -276,20 +324,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -314,16 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -333,7 +363,49 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,484 +687,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S24"/>
+  <dimension ref="B2:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="Q2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="17"/>
+    </row>
+    <row r="3" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="Q3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+    </row>
+    <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="Q5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="19" t="s">
+      <c r="R5" s="14"/>
+      <c r="S5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+    </row>
+    <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="6"/>
+    </row>
+    <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="6"/>
+    </row>
+    <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="16" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="22"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="6"/>
+    </row>
+    <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="16" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" s="14"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="6"/>
+    </row>
+    <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="K10" s="17"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="6"/>
+    </row>
+    <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="15" t="s">
+      <c r="K11" s="17"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="13"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="6"/>
+    </row>
+    <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="15" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="6"/>
+    </row>
+    <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="15" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="6"/>
+    </row>
+    <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+      <c r="Q15" s="4"/>
+      <c r="V15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="6"/>
+    </row>
+    <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="27"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="6"/>
+    </row>
+    <row r="17" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="U17" s="14"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="6"/>
+    </row>
+    <row r="18" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="6"/>
+    </row>
+    <row r="19" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="13"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="6"/>
+    </row>
+    <row r="20" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
       <c r="C20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="D20" s="17"/>
       <c r="E20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="15" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="13"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="6"/>
+    </row>
+    <row r="21" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" s="13"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="6"/>
+    </row>
+    <row r="22" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="6"/>
+    </row>
+    <row r="23" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+      <c r="Q23" s="4"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="6"/>
+    </row>
+    <row r="24" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="E10:F10"/>
+  <mergeCells count="80">
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="Q2:AC2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:AC4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:AC5"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -1100,6 +1533,23 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:N4"/>
     <mergeCell ref="D5:N5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UI/Seminarska/rezultati.xlsx
+++ b/UI/Seminarska/rezultati.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -362,19 +362,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -386,12 +392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,12 +399,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,58 +683,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5:AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="Q2" s="15" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="14"/>
+      <c r="Q2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="17"/>
-    </row>
-    <row r="3" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="14"/>
+    </row>
+    <row r="3" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -748,16 +742,16 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
@@ -766,81 +760,81 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="20" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-    </row>
-    <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+    </row>
+    <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="Q5" s="14" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="Q5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="20" t="s">
+      <c r="R5" s="15"/>
+      <c r="S5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-    </row>
-    <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+    </row>
+    <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -868,7 +862,7 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -896,265 +890,257 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="21" t="s">
+      <c r="W8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="21" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14" t="s">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="14"/>
+      <c r="U9" s="15"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="21" t="s">
+      <c r="W9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="21" t="s">
+      <c r="X9" s="18"/>
+      <c r="Y9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Z9" s="22"/>
+      <c r="Z9" s="18"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="6"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="R10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="14"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="17"/>
+      <c r="W10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" s="14"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="12"/>
       <c r="M11" s="5"/>
       <c r="N11" s="6"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="S11" s="14"/>
       <c r="T11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="U11" s="14"/>
       <c r="V11" s="12"/>
       <c r="W11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z11" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="14"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="15" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="6"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="13"/>
+      <c r="R12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="16"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z12" s="17"/>
+      <c r="W12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="16"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" s="13"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13" s="13"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="6"/>
     </row>
-    <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
@@ -1172,7 +1158,7 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="G15" s="5"/>
       <c r="L15" s="5"/>
@@ -1184,14 +1170,14 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1201,12 +1187,12 @@
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="27"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
@@ -1216,16 +1202,16 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1235,14 +1221,14 @@
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14" t="s">
+      <c r="S17" s="15"/>
+      <c r="T17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="U17" s="14"/>
+      <c r="U17" s="15"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
@@ -1252,16 +1238,16 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1271,10 +1257,14 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
+      <c r="R18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="14"/>
+      <c r="T18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="14"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
@@ -1284,16 +1274,16 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1304,13 +1294,13 @@
       <c r="N19" s="6"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="S19" s="14"/>
       <c r="T19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U19" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="U19" s="14"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -1320,16 +1310,16 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="6"/>
     </row>
-    <row r="20" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1339,14 +1329,14 @@
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="U20" s="13"/>
+      <c r="R20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="16"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -1356,13 +1346,13 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="23"/>
@@ -1375,14 +1365,6 @@
       <c r="M21" s="5"/>
       <c r="N21" s="6"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U21" s="13"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -1392,7 +1374,7 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="6"/>
     </row>
-    <row r="22" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
@@ -1420,7 +1402,7 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1440,7 +1422,7 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="6"/>
     </row>
-    <row r="24" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1469,35 +1451,44 @@
       <c r="AC24" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
+  <mergeCells count="74">
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="J13:K14"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="Q2:AC2"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:V3"/>
@@ -1505,8 +1496,6 @@
     <mergeCell ref="S4:AC4"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:AC5"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="W8:X8"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="W9:X9"/>
@@ -1515,41 +1504,28 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:N4"/>
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="T10:U10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
